--- a/server/docs/NpcCfgExcel_com.wan37.config.entity.NpcCfgExcel.xlsx
+++ b/server/docs/NpcCfgExcel_com.wan37.config.entity.NpcCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7200E6F8-9288-455D-AB94-1D8CDDB047BB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3687F9E8-663A-4054-B1F7-C4D547A4A220}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,10 @@
   </si>
   <si>
     <t>阿坤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -364,43 +368,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>101</v>
+      <c r="A2" t="s">
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/server/docs/NpcCfgExcel_com.wan37.config.entity.NpcCfgExcel.xlsx
+++ b/server/docs/NpcCfgExcel_com.wan37.config.entity.NpcCfgExcel.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3687F9E8-663A-4054-B1F7-C4D547A4A220}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1855C06A-0C77-43AF-A172-41C453C3C3A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,10 @@
   </si>
   <si>
     <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小达</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -94,6 +98,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -113,7 +185,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -368,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -413,6 +485,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/docs/NpcCfgExcel_com.wan37.config.entity.NpcCfgExcel.xlsx
+++ b/server/docs/NpcCfgExcel_com.wan37.config.entity.NpcCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1855C06A-0C77-43AF-A172-41C453C3C3A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4654450C-5500-42A8-95EC-1D4C6398DD0F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,18 @@
   </si>
   <si>
     <t>小达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认对白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈哈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +197,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -440,57 +452,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>101</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>102</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>103</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>104</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/NpcCfgExcel_com.wan37.config.entity.NpcCfgExcel.xlsx
+++ b/server/docs/NpcCfgExcel_com.wan37.config.entity.NpcCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4654450C-5500-42A8-95EC-1D4C6398DD0F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7680702D-5FF8-4791-A070-AB63EB131215}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,14 @@
   </si>
   <si>
     <t>哈哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我妈妈让你来找我的吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我有个儿子叫小坤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,7 +205,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -455,12 +463,12 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -490,7 +498,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -512,7 +520,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">

--- a/server/docs/NpcCfgExcel_com.wan37.config.entity.NpcCfgExcel.xlsx
+++ b/server/docs/NpcCfgExcel_com.wan37.config.entity.NpcCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7680702D-5FF8-4791-A070-AB63EB131215}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDF0F63-F3B3-48A8-8B09-7ED1257A1C0E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,14 @@
   </si>
   <si>
     <t>我有个儿子叫小坤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要死啦。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孤独的老者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,14 +468,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
     <col min="3" max="3" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -534,6 +543,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/docs/NpcCfgExcel_com.wan37.config.entity.NpcCfgExcel.xlsx
+++ b/server/docs/NpcCfgExcel_com.wan37.config.entity.NpcCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDF0F63-F3B3-48A8-8B09-7ED1257A1C0E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B373F00-CC0C-425E-ADC4-87DEEBFFC3D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,14 @@
   </si>
   <si>
     <t>孤独的老者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远古英雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我以前。。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -554,6 +562,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/docs/NpcCfgExcel_com.wan37.config.entity.NpcCfgExcel.xlsx
+++ b/server/docs/NpcCfgExcel_com.wan37.config.entity.NpcCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B373F00-CC0C-425E-ADC4-87DEEBFFC3D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFA947C-6DAE-4918-8619-7F8AF1216BF3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,14 @@
   </si>
   <si>
     <t>我以前。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匠人之神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器我有。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -573,6 +581,17 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
